--- a/artfynd/A 33664-2023.xlsx
+++ b/artfynd/A 33664-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,6 +1126,1842 @@
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112475048</v>
+      </c>
+      <c r="B6" t="n">
+        <v>89485</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>112</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Stjärntagging</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Asterodon ferruginosus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>537193</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7202876</v>
+      </c>
+      <c r="S6" t="n">
+        <v>25</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112475119</v>
+      </c>
+      <c r="B7" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>537157</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7202946</v>
+      </c>
+      <c r="S7" t="n">
+        <v>25</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112475045</v>
+      </c>
+      <c r="B8" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>537162</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7203011</v>
+      </c>
+      <c r="S8" t="n">
+        <v>25</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112475047</v>
+      </c>
+      <c r="B9" t="n">
+        <v>89553</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Gränsticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Phellopilus nigrolimitatus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>537125</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7202974</v>
+      </c>
+      <c r="S9" t="n">
+        <v>25</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112475115</v>
+      </c>
+      <c r="B10" t="n">
+        <v>89557</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>537179</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7202921</v>
+      </c>
+      <c r="S10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112475116</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78726</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>537179</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7202929</v>
+      </c>
+      <c r="S11" t="n">
+        <v>25</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112475117</v>
+      </c>
+      <c r="B12" t="n">
+        <v>73820</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>537176</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7202935</v>
+      </c>
+      <c r="S12" t="n">
+        <v>25</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112475120</v>
+      </c>
+      <c r="B13" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>537142</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7202937</v>
+      </c>
+      <c r="S13" t="n">
+        <v>25</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112475046</v>
+      </c>
+      <c r="B14" t="n">
+        <v>97051</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>219880</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kransrams</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Polygonatum verticillatum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(L.) All.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>537143</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7202996</v>
+      </c>
+      <c r="S14" t="n">
+        <v>25</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112475114</v>
+      </c>
+      <c r="B15" t="n">
+        <v>78732</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6463</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bårdlav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nephroma parile</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>537183</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7202916</v>
+      </c>
+      <c r="S15" t="n">
+        <v>25</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112475125</v>
+      </c>
+      <c r="B16" t="n">
+        <v>89557</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>537134</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7202956</v>
+      </c>
+      <c r="S16" t="n">
+        <v>25</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112475044</v>
+      </c>
+      <c r="B17" t="n">
+        <v>78732</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>6463</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bårdlav</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Nephroma parile</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>537164</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7203017</v>
+      </c>
+      <c r="S17" t="n">
+        <v>25</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112475113</v>
+      </c>
+      <c r="B18" t="n">
+        <v>78700</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>537180</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7202914</v>
+      </c>
+      <c r="S18" t="n">
+        <v>25</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112475118</v>
+      </c>
+      <c r="B19" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>537145</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7202941</v>
+      </c>
+      <c r="S19" t="n">
+        <v>25</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112475126</v>
+      </c>
+      <c r="B20" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>537129</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7202963</v>
+      </c>
+      <c r="S20" t="n">
+        <v>25</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112475043</v>
+      </c>
+      <c r="B21" t="n">
+        <v>78726</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>537164</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7203021</v>
+      </c>
+      <c r="S21" t="n">
+        <v>25</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112475042</v>
+      </c>
+      <c r="B22" t="n">
+        <v>93310</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1079</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Aspfjädermossa</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Neckera pennata</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>537165</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7203022</v>
+      </c>
+      <c r="S22" t="n">
+        <v>25</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112475112</v>
+      </c>
+      <c r="B23" t="n">
+        <v>89557</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Handsktumhällan, saxnäs, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>537180</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7202916</v>
+      </c>
+      <c r="S23" t="n">
+        <v>25</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Ola Hedberg</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Ola Hedberg, Amalia Waldén, Gustav Forsblom, Amanda Fagerlund</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 33664-2023.xlsx
+++ b/artfynd/A 33664-2023.xlsx
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112475048</v>
+        <v>112475126</v>
       </c>
       <c r="B6" t="n">
-        <v>89485</v>
+        <v>89553</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>112</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>537193</v>
+        <v>537129</v>
       </c>
       <c r="R6" t="n">
-        <v>7202876</v>
+        <v>7202963</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112475119</v>
+        <v>112475048</v>
       </c>
       <c r="B7" t="n">
-        <v>89503</v>
+        <v>89499</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1242,25 +1242,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>112</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>537157</v>
+        <v>537193</v>
       </c>
       <c r="R7" t="n">
-        <v>7202946</v>
+        <v>7202876</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112475045</v>
+        <v>112475044</v>
       </c>
       <c r="B8" t="n">
-        <v>89503</v>
+        <v>78746</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1348,21 +1348,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>6463</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>537162</v>
+        <v>537164</v>
       </c>
       <c r="R8" t="n">
-        <v>7203011</v>
+        <v>7203017</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112475047</v>
+        <v>112475114</v>
       </c>
       <c r="B9" t="n">
-        <v>89553</v>
+        <v>78746</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1446,25 +1446,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1204</v>
+        <v>6463</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>537125</v>
+        <v>537183</v>
       </c>
       <c r="R9" t="n">
-        <v>7202974</v>
+        <v>7202916</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1504,12 +1504,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1536,10 +1536,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112475115</v>
+        <v>112475112</v>
       </c>
       <c r="B10" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1576,10 +1576,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>537179</v>
+        <v>537180</v>
       </c>
       <c r="R10" t="n">
-        <v>7202921</v>
+        <v>7202916</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112475116</v>
+        <v>112475042</v>
       </c>
       <c r="B11" t="n">
-        <v>78726</v>
+        <v>93324</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1650,25 +1650,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6462</v>
+        <v>1079</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>537179</v>
+        <v>537165</v>
       </c>
       <c r="R11" t="n">
-        <v>7202929</v>
+        <v>7203022</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1708,12 +1708,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1740,10 +1740,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112475117</v>
+        <v>112475115</v>
       </c>
       <c r="B12" t="n">
-        <v>73820</v>
+        <v>89571</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1756,21 +1756,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>537176</v>
+        <v>537179</v>
       </c>
       <c r="R12" t="n">
-        <v>7202935</v>
+        <v>7202921</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112475120</v>
+        <v>112475116</v>
       </c>
       <c r="B13" t="n">
-        <v>77636</v>
+        <v>78740</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1854,25 +1854,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>537142</v>
+        <v>537179</v>
       </c>
       <c r="R13" t="n">
-        <v>7202937</v>
+        <v>7202929</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1947,7 +1947,7 @@
         <v>112475046</v>
       </c>
       <c r="B14" t="n">
-        <v>97051</v>
+        <v>97066</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2046,10 +2046,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112475114</v>
+        <v>112475120</v>
       </c>
       <c r="B15" t="n">
-        <v>78732</v>
+        <v>77650</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2058,20 +2058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>537183</v>
+        <v>537142</v>
       </c>
       <c r="R15" t="n">
-        <v>7202916</v>
+        <v>7202937</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112475125</v>
+        <v>112475047</v>
       </c>
       <c r="B16" t="n">
-        <v>89557</v>
+        <v>89567</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2164,21 +2164,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2188,10 +2188,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>537134</v>
+        <v>537125</v>
       </c>
       <c r="R16" t="n">
-        <v>7202956</v>
+        <v>7202974</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2218,12 +2218,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2250,10 +2250,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112475044</v>
+        <v>112475043</v>
       </c>
       <c r="B17" t="n">
-        <v>78732</v>
+        <v>78740</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2266,21 +2266,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
         <v>537164</v>
       </c>
       <c r="R17" t="n">
-        <v>7203017</v>
+        <v>7203021</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2352,10 +2352,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112475113</v>
+        <v>112475125</v>
       </c>
       <c r="B18" t="n">
-        <v>78700</v>
+        <v>89571</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2368,21 +2368,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2392,10 +2392,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>537180</v>
+        <v>537134</v>
       </c>
       <c r="R18" t="n">
-        <v>7202914</v>
+        <v>7202956</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112475118</v>
+        <v>112475045</v>
       </c>
       <c r="B19" t="n">
-        <v>77636</v>
+        <v>89517</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2466,25 +2466,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>537145</v>
+        <v>537162</v>
       </c>
       <c r="R19" t="n">
-        <v>7202941</v>
+        <v>7203011</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2524,12 +2524,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2556,10 +2556,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112475126</v>
+        <v>112475118</v>
       </c>
       <c r="B20" t="n">
-        <v>89539</v>
+        <v>77650</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2572,21 +2572,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2596,10 +2596,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>537129</v>
+        <v>537145</v>
       </c>
       <c r="R20" t="n">
-        <v>7202963</v>
+        <v>7202941</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112475043</v>
+        <v>112475113</v>
       </c>
       <c r="B21" t="n">
-        <v>78726</v>
+        <v>78714</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2670,25 +2670,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>537164</v>
+        <v>537180</v>
       </c>
       <c r="R21" t="n">
-        <v>7203021</v>
+        <v>7202914</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2728,12 +2728,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2760,10 +2760,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112475042</v>
+        <v>112475117</v>
       </c>
       <c r="B22" t="n">
-        <v>93310</v>
+        <v>73834</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2772,25 +2772,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1079</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2800,10 +2800,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>537165</v>
+        <v>537176</v>
       </c>
       <c r="R22" t="n">
-        <v>7203022</v>
+        <v>7202935</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -2830,12 +2830,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2862,10 +2862,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112475112</v>
+        <v>112475119</v>
       </c>
       <c r="B23" t="n">
-        <v>89557</v>
+        <v>89517</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2874,25 +2874,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2902,10 +2902,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>537180</v>
+        <v>537157</v>
       </c>
       <c r="R23" t="n">
-        <v>7202916</v>
+        <v>7202946</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>

--- a/artfynd/A 33664-2023.xlsx
+++ b/artfynd/A 33664-2023.xlsx
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112475126</v>
+        <v>112475114</v>
       </c>
       <c r="B6" t="n">
-        <v>89553</v>
+        <v>78746</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>6463</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>537129</v>
+        <v>537183</v>
       </c>
       <c r="R6" t="n">
-        <v>7202963</v>
+        <v>7202916</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112475048</v>
+        <v>112475117</v>
       </c>
       <c r="B7" t="n">
-        <v>89499</v>
+        <v>73834</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1246,21 +1246,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>112</v>
+        <v>6440</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>537193</v>
+        <v>537176</v>
       </c>
       <c r="R7" t="n">
-        <v>7202876</v>
+        <v>7202935</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112475044</v>
+        <v>112475125</v>
       </c>
       <c r="B8" t="n">
-        <v>78746</v>
+        <v>89571</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1344,25 +1344,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6463</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>537164</v>
+        <v>537134</v>
       </c>
       <c r="R8" t="n">
-        <v>7203017</v>
+        <v>7202956</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1402,12 +1402,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1434,10 +1434,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112475114</v>
+        <v>112475120</v>
       </c>
       <c r="B9" t="n">
-        <v>78746</v>
+        <v>77650</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1446,20 +1446,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>537183</v>
+        <v>537142</v>
       </c>
       <c r="R9" t="n">
-        <v>7202916</v>
+        <v>7202937</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112475112</v>
+        <v>112475115</v>
       </c>
       <c r="B10" t="n">
         <v>89571</v>
@@ -1576,10 +1576,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>537180</v>
+        <v>537179</v>
       </c>
       <c r="R10" t="n">
-        <v>7202916</v>
+        <v>7202921</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112475042</v>
+        <v>112475126</v>
       </c>
       <c r="B11" t="n">
-        <v>93324</v>
+        <v>89553</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1650,25 +1650,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1079</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>537165</v>
+        <v>537129</v>
       </c>
       <c r="R11" t="n">
-        <v>7203022</v>
+        <v>7202963</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1708,12 +1708,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1740,10 +1740,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112475115</v>
+        <v>112475116</v>
       </c>
       <c r="B12" t="n">
-        <v>89571</v>
+        <v>78740</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1752,25 +1752,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1783,7 +1783,7 @@
         <v>537179</v>
       </c>
       <c r="R12" t="n">
-        <v>7202921</v>
+        <v>7202929</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112475116</v>
+        <v>112475112</v>
       </c>
       <c r="B13" t="n">
-        <v>78740</v>
+        <v>89571</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1854,25 +1854,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>537179</v>
+        <v>537180</v>
       </c>
       <c r="R13" t="n">
-        <v>7202929</v>
+        <v>7202916</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112475046</v>
+        <v>112475119</v>
       </c>
       <c r="B14" t="n">
-        <v>97066</v>
+        <v>89517</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1960,21 +1960,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219880</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>537143</v>
+        <v>537157</v>
       </c>
       <c r="R14" t="n">
-        <v>7202996</v>
+        <v>7202946</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2014,12 +2014,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2046,10 +2046,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112475120</v>
+        <v>112475046</v>
       </c>
       <c r="B15" t="n">
-        <v>77650</v>
+        <v>97066</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2058,25 +2058,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>219880</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>537142</v>
+        <v>537143</v>
       </c>
       <c r="R15" t="n">
-        <v>7202937</v>
+        <v>7202996</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2148,10 +2148,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112475047</v>
+        <v>112475118</v>
       </c>
       <c r="B16" t="n">
-        <v>89567</v>
+        <v>77650</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2164,21 +2164,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2188,10 +2188,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>537125</v>
+        <v>537145</v>
       </c>
       <c r="R16" t="n">
-        <v>7202974</v>
+        <v>7202941</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2218,12 +2218,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2250,10 +2250,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112475043</v>
+        <v>112475048</v>
       </c>
       <c r="B17" t="n">
-        <v>78740</v>
+        <v>89499</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2262,25 +2262,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6462</v>
+        <v>112</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>537164</v>
+        <v>537193</v>
       </c>
       <c r="R17" t="n">
-        <v>7203021</v>
+        <v>7202876</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2320,12 +2320,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2352,10 +2352,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112475125</v>
+        <v>112475044</v>
       </c>
       <c r="B18" t="n">
-        <v>89571</v>
+        <v>78746</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2364,25 +2364,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>6463</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2392,10 +2392,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>537134</v>
+        <v>537164</v>
       </c>
       <c r="R18" t="n">
-        <v>7202956</v>
+        <v>7203017</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2556,10 +2556,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112475118</v>
+        <v>112475042</v>
       </c>
       <c r="B20" t="n">
-        <v>77650</v>
+        <v>93324</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2568,25 +2568,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>1079</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2596,10 +2596,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>537145</v>
+        <v>537165</v>
       </c>
       <c r="R20" t="n">
-        <v>7202941</v>
+        <v>7203022</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2760,10 +2760,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112475117</v>
+        <v>112475047</v>
       </c>
       <c r="B22" t="n">
-        <v>73834</v>
+        <v>89567</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2776,21 +2776,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6440</v>
+        <v>1204</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2800,10 +2800,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>537176</v>
+        <v>537125</v>
       </c>
       <c r="R22" t="n">
-        <v>7202935</v>
+        <v>7202974</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -2830,12 +2830,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2862,10 +2862,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112475119</v>
+        <v>112475043</v>
       </c>
       <c r="B23" t="n">
-        <v>89517</v>
+        <v>78740</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2878,21 +2878,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2902,10 +2902,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>537157</v>
+        <v>537164</v>
       </c>
       <c r="R23" t="n">
-        <v>7202946</v>
+        <v>7203021</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -2932,12 +2932,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="AD23" t="b">
